--- a/static/resources/Stimul_2.xlsx
+++ b/static/resources/Stimul_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="208">
   <si>
     <t>Purple 1</t>
   </si>
@@ -341,304 +341,313 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A1.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A2.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A3.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A4.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A5.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A6.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A7.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A8.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A9.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A10.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A11.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A12.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A13.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A14.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A15.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A16.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A17.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A18.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A19.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A20.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A21.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A22.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A23.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A24.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A25.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A26.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A27.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A28.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A29.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A30.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A31.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A32.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A33.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A34.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A35.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A36.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A37.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A38.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A39.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A40.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A41.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A42.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A43.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A44.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A45.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A46.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A47.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A48.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A49.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A50.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A52.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A53.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A54.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A55.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A56.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A57.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A58.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A59.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A60.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A61.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A62.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A63.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A64.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A65.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A66.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A67.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A68.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A69.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A70.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A71.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A72.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A73.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A74.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A75.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A76.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A77.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A78.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A79.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A80.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A81.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A82.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A83.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A84.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A85.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A86.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A87.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A88.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A89.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A90.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A91.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A92.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A93.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A94.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A95.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A96.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A97.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A98.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A99.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A100.jpg?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A101.jpg?raw=true</t>
+    <t>К1.jpg</t>
+  </si>
+  <si>
+    <t>К2.jpg</t>
+  </si>
+  <si>
+    <t>К3.jpg</t>
+  </si>
+  <si>
+    <t>К4.jpg</t>
+  </si>
+  <si>
+    <t>К5.jpg</t>
+  </si>
+  <si>
+    <t>К6.jpg</t>
+  </si>
+  <si>
+    <t>К7.jpg</t>
+  </si>
+  <si>
+    <t>К8.jpg</t>
+  </si>
+  <si>
+    <t>К9.jpg</t>
+  </si>
+  <si>
+    <t>К10.jpg</t>
+  </si>
+  <si>
+    <t>К11.jpg</t>
+  </si>
+  <si>
+    <t>К12.jpg</t>
+  </si>
+  <si>
+    <t>К13.jpg</t>
+  </si>
+  <si>
+    <t>К14.jpg</t>
+  </si>
+  <si>
+    <t>К15.jpg</t>
+  </si>
+  <si>
+    <t>К16.jpg</t>
+  </si>
+  <si>
+    <t>К17.jpg</t>
+  </si>
+  <si>
+    <t>К18.jpg</t>
+  </si>
+  <si>
+    <t>К19.jpg</t>
+  </si>
+  <si>
+    <t>К20.jpg</t>
+  </si>
+  <si>
+    <t>К21.jpg</t>
+  </si>
+  <si>
+    <t>К22.jpg</t>
+  </si>
+  <si>
+    <t>К23.jpg</t>
+  </si>
+  <si>
+    <t>К24.jpg</t>
+  </si>
+  <si>
+    <t>К25.jpg</t>
+  </si>
+  <si>
+    <t>К26.jpg</t>
+  </si>
+  <si>
+    <t>К27.jpg</t>
+  </si>
+  <si>
+    <t>К28.jpg</t>
+  </si>
+  <si>
+    <t>К29.jpg</t>
+  </si>
+  <si>
+    <t>К30.jpg</t>
+  </si>
+  <si>
+    <t>К31.jpg</t>
+  </si>
+  <si>
+    <t>К32.jpg</t>
+  </si>
+  <si>
+    <t>К33.jpg</t>
+  </si>
+  <si>
+    <t>К34.jpg</t>
+  </si>
+  <si>
+    <t>К35.jpg</t>
+  </si>
+  <si>
+    <t>К36.jpg</t>
+  </si>
+  <si>
+    <t>К37.jpg</t>
+  </si>
+  <si>
+    <t>К38.jpg</t>
+  </si>
+  <si>
+    <t>К39.jpg</t>
+  </si>
+  <si>
+    <t>К40.jpg</t>
+  </si>
+  <si>
+    <t>К41.jpg</t>
+  </si>
+  <si>
+    <t>К42.jpg</t>
+  </si>
+  <si>
+    <t>К43.jpg</t>
+  </si>
+  <si>
+    <t>К44.jpg</t>
+  </si>
+  <si>
+    <t>К45.jpg</t>
+  </si>
+  <si>
+    <t>К46.jpg</t>
+  </si>
+  <si>
+    <t>К47.jpg</t>
+  </si>
+  <si>
+    <t>К48.jpg</t>
+  </si>
+  <si>
+    <t>К49.jpg</t>
+  </si>
+  <si>
+    <t>К50.jpg</t>
+  </si>
+  <si>
+    <t>К52.jpg</t>
+  </si>
+  <si>
+    <t>К53.jpg</t>
+  </si>
+  <si>
+    <t>К54.jpg</t>
+  </si>
+  <si>
+    <t>К55.jpg</t>
+  </si>
+  <si>
+    <t>К56.jpg</t>
+  </si>
+  <si>
+    <t>К57.jpg</t>
+  </si>
+  <si>
+    <t>К58.jpg</t>
+  </si>
+  <si>
+    <t>К59.jpg</t>
+  </si>
+  <si>
+    <t>К60.jpg</t>
+  </si>
+  <si>
+    <t>К61.jpg</t>
+  </si>
+  <si>
+    <t>К62.jpg</t>
+  </si>
+  <si>
+    <t>К63.jpg</t>
+  </si>
+  <si>
+    <t>К64.jpg</t>
+  </si>
+  <si>
+    <t>К65.jpg</t>
+  </si>
+  <si>
+    <t>К66.jpg</t>
+  </si>
+  <si>
+    <t>К67.jpg</t>
+  </si>
+  <si>
+    <t>К68.jpg</t>
+  </si>
+  <si>
+    <t>К69.jpg</t>
+  </si>
+  <si>
+    <t>К70.jpg</t>
+  </si>
+  <si>
+    <t>К71.jpg</t>
+  </si>
+  <si>
+    <t>К72.jpg</t>
+  </si>
+  <si>
+    <t>К73.jpg</t>
+  </si>
+  <si>
+    <t>К74.jpg</t>
+  </si>
+  <si>
+    <t>К75.jpg</t>
+  </si>
+  <si>
+    <t>К76.jpg</t>
+  </si>
+  <si>
+    <t>К77.jpg</t>
+  </si>
+  <si>
+    <t>К78.jpg</t>
+  </si>
+  <si>
+    <t>К79.jpg</t>
+  </si>
+  <si>
+    <t>К80.jpg</t>
+  </si>
+  <si>
+    <t>К81.jpg</t>
+  </si>
+  <si>
+    <t>К82.jpg</t>
+  </si>
+  <si>
+    <t>К83.jpg</t>
+  </si>
+  <si>
+    <t>К84.jpg</t>
+  </si>
+  <si>
+    <t>К85.jpg</t>
+  </si>
+  <si>
+    <t>К86.jpg</t>
+  </si>
+  <si>
+    <t>К87.jpg</t>
+  </si>
+  <si>
+    <t>К88.jpg</t>
+  </si>
+  <si>
+    <t>К89.jpg</t>
+  </si>
+  <si>
+    <t>К90.jpg</t>
+  </si>
+  <si>
+    <t>К91.jpg</t>
+  </si>
+  <si>
+    <t>К92.jpg</t>
+  </si>
+  <si>
+    <t>К93.jpg</t>
+  </si>
+  <si>
+    <t>К94.jpg</t>
+  </si>
+  <si>
+    <t>К95.jpg</t>
+  </si>
+  <si>
+    <t>К96.jpg</t>
+  </si>
+  <si>
+    <t>К97.jpg</t>
+  </si>
+  <si>
+    <t>К98.jpg</t>
+  </si>
+  <si>
+    <t>К99.jpg</t>
+  </si>
+  <si>
+    <t>К100.jpg</t>
+  </si>
+  <si>
+    <t>К101.jpg</t>
+  </si>
+  <si>
+    <t>Correct_answer</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -969,15 +978,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -987,8 +996,11 @@
       <c r="C1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -998,8 +1010,11 @@
       <c r="C2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1009,8 +1024,11 @@
       <c r="C3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1020,8 +1038,11 @@
       <c r="C4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1031,8 +1052,11 @@
       <c r="C5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1066,11 @@
       <c r="C6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1053,8 +1080,11 @@
       <c r="C7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1064,8 +1094,11 @@
       <c r="C8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1108,11 @@
       <c r="C9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +1122,11 @@
       <c r="C10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1097,8 +1136,11 @@
       <c r="C11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1150,11 @@
       <c r="C12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1119,8 +1164,11 @@
       <c r="C13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1130,8 +1178,11 @@
       <c r="C14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1141,8 +1192,11 @@
       <c r="C15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1152,8 +1206,11 @@
       <c r="C16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1163,8 +1220,11 @@
       <c r="C17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1174,8 +1234,11 @@
       <c r="C18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1185,8 +1248,11 @@
       <c r="C19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1196,8 +1262,11 @@
       <c r="C20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1207,8 +1276,11 @@
       <c r="C21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1218,8 +1290,11 @@
       <c r="C22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1229,8 +1304,11 @@
       <c r="C23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1240,8 +1318,11 @@
       <c r="C24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1251,8 +1332,11 @@
       <c r="C25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1262,8 +1346,11 @@
       <c r="C26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1273,8 +1360,11 @@
       <c r="C27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1284,8 +1374,11 @@
       <c r="C28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1295,8 +1388,11 @@
       <c r="C29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1306,8 +1402,11 @@
       <c r="C30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1317,8 +1416,11 @@
       <c r="C31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1328,8 +1430,11 @@
       <c r="C32" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1339,8 +1444,11 @@
       <c r="C33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1350,8 +1458,11 @@
       <c r="C34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1361,8 +1472,11 @@
       <c r="C35" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1372,8 +1486,11 @@
       <c r="C36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1383,8 +1500,11 @@
       <c r="C37" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1394,8 +1514,11 @@
       <c r="C38" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1405,8 +1528,11 @@
       <c r="C39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1416,8 +1542,11 @@
       <c r="C40" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1427,8 +1556,11 @@
       <c r="C41" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1438,8 +1570,11 @@
       <c r="C42" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1449,8 +1584,11 @@
       <c r="C43" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1460,8 +1598,11 @@
       <c r="C44" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1471,8 +1612,11 @@
       <c r="C45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1482,8 +1626,11 @@
       <c r="C46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1493,8 +1640,11 @@
       <c r="C47" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1504,8 +1654,11 @@
       <c r="C48" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1515,8 +1668,11 @@
       <c r="C49" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1526,8 +1682,11 @@
       <c r="C50" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1537,8 +1696,11 @@
       <c r="C51" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1548,8 +1710,11 @@
       <c r="C52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1559,8 +1724,11 @@
       <c r="C53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1570,8 +1738,11 @@
       <c r="C54" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1581,8 +1752,11 @@
       <c r="C55" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1592,8 +1766,11 @@
       <c r="C56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1603,8 +1780,11 @@
       <c r="C57" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1614,8 +1794,11 @@
       <c r="C58" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1625,8 +1808,11 @@
       <c r="C59" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1636,8 +1822,11 @@
       <c r="C60" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1647,8 +1836,11 @@
       <c r="C61" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1658,8 +1850,11 @@
       <c r="C62" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1669,8 +1864,11 @@
       <c r="C63" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1680,8 +1878,11 @@
       <c r="C64" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1691,8 +1892,11 @@
       <c r="C65" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1702,8 +1906,11 @@
       <c r="C66" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1713,8 +1920,11 @@
       <c r="C67" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1724,8 +1934,11 @@
       <c r="C68" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1735,8 +1948,11 @@
       <c r="C69" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1746,8 +1962,11 @@
       <c r="C70" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1757,8 +1976,11 @@
       <c r="C71" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1768,8 +1990,11 @@
       <c r="C72" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1779,8 +2004,11 @@
       <c r="C73" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1790,8 +2018,11 @@
       <c r="C74" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1801,8 +2032,11 @@
       <c r="C75" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1812,8 +2046,11 @@
       <c r="C76" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1823,8 +2060,11 @@
       <c r="C77" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1834,8 +2074,11 @@
       <c r="C78" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1845,8 +2088,11 @@
       <c r="C79" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1856,8 +2102,11 @@
       <c r="C80" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1867,8 +2116,11 @@
       <c r="C81" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1878,8 +2130,11 @@
       <c r="C82" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1889,8 +2144,11 @@
       <c r="C83" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1900,8 +2158,11 @@
       <c r="C84" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1911,8 +2172,11 @@
       <c r="C85" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1922,8 +2186,11 @@
       <c r="C86" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1933,8 +2200,11 @@
       <c r="C87" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1944,8 +2214,11 @@
       <c r="C88" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1955,8 +2228,11 @@
       <c r="C89" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -1966,8 +2242,11 @@
       <c r="C90" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -1977,8 +2256,11 @@
       <c r="C91" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -1988,8 +2270,11 @@
       <c r="C92" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -1999,8 +2284,11 @@
       <c r="C93" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2010,8 +2298,11 @@
       <c r="C94" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2021,8 +2312,11 @@
       <c r="C95" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2032,8 +2326,11 @@
       <c r="C96" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2043,8 +2340,11 @@
       <c r="C97" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2054,8 +2354,11 @@
       <c r="C98" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2065,8 +2368,11 @@
       <c r="C99" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2076,8 +2382,11 @@
       <c r="C100" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2087,109 +2396,112 @@
       <c r="C101" t="s">
         <v>104</v>
       </c>
+      <c r="D101" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B23" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B44" r:id="rId41"/>
-    <hyperlink ref="B45" r:id="rId42"/>
-    <hyperlink ref="B46" r:id="rId43"/>
-    <hyperlink ref="B47" r:id="rId44"/>
-    <hyperlink ref="B48" r:id="rId45"/>
-    <hyperlink ref="B49" r:id="rId46"/>
-    <hyperlink ref="B50" r:id="rId47"/>
-    <hyperlink ref="B51" r:id="rId48"/>
-    <hyperlink ref="B53" r:id="rId49"/>
-    <hyperlink ref="B54" r:id="rId50"/>
-    <hyperlink ref="B55" r:id="rId51"/>
-    <hyperlink ref="B56" r:id="rId52"/>
-    <hyperlink ref="B57" r:id="rId53"/>
-    <hyperlink ref="B58" r:id="rId54"/>
-    <hyperlink ref="B59" r:id="rId55"/>
-    <hyperlink ref="B60" r:id="rId56"/>
-    <hyperlink ref="B61" r:id="rId57"/>
-    <hyperlink ref="B62" r:id="rId58"/>
-    <hyperlink ref="B63" r:id="rId59"/>
-    <hyperlink ref="B64" r:id="rId60"/>
-    <hyperlink ref="B65" r:id="rId61"/>
-    <hyperlink ref="B66" r:id="rId62"/>
-    <hyperlink ref="B67" r:id="rId63"/>
-    <hyperlink ref="B68" r:id="rId64"/>
-    <hyperlink ref="B69" r:id="rId65"/>
-    <hyperlink ref="B70" r:id="rId66"/>
-    <hyperlink ref="B71" r:id="rId67"/>
-    <hyperlink ref="B72" r:id="rId68"/>
-    <hyperlink ref="B73" r:id="rId69"/>
-    <hyperlink ref="B74" r:id="rId70"/>
-    <hyperlink ref="B75" r:id="rId71"/>
-    <hyperlink ref="B76" r:id="rId72"/>
-    <hyperlink ref="B77" r:id="rId73"/>
-    <hyperlink ref="B78" r:id="rId74"/>
-    <hyperlink ref="B79" r:id="rId75"/>
-    <hyperlink ref="B80" r:id="rId76"/>
-    <hyperlink ref="B81" r:id="rId77"/>
-    <hyperlink ref="B82" r:id="rId78"/>
-    <hyperlink ref="B83" r:id="rId79"/>
-    <hyperlink ref="B84" r:id="rId80"/>
-    <hyperlink ref="B85" r:id="rId81"/>
-    <hyperlink ref="B86" r:id="rId82"/>
-    <hyperlink ref="B87" r:id="rId83"/>
-    <hyperlink ref="B88" r:id="rId84"/>
-    <hyperlink ref="B89" r:id="rId85"/>
-    <hyperlink ref="B90" r:id="rId86"/>
-    <hyperlink ref="B91" r:id="rId87"/>
-    <hyperlink ref="B92" r:id="rId88"/>
-    <hyperlink ref="B93" r:id="rId89"/>
-    <hyperlink ref="B94" r:id="rId90"/>
-    <hyperlink ref="B95" r:id="rId91"/>
-    <hyperlink ref="B96" r:id="rId92"/>
-    <hyperlink ref="B97" r:id="rId93"/>
-    <hyperlink ref="B98" r:id="rId94"/>
-    <hyperlink ref="B99" r:id="rId95"/>
-    <hyperlink ref="B101" r:id="rId96"/>
-    <hyperlink ref="B52" r:id="rId97"/>
-    <hyperlink ref="B15" r:id="rId98"/>
-    <hyperlink ref="B43" r:id="rId99"/>
-    <hyperlink ref="B100" r:id="rId100"/>
+    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="B100" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId4"/>
+    <hyperlink ref="B101" r:id="rId5"/>
+    <hyperlink ref="B99" r:id="rId6"/>
+    <hyperlink ref="B98" r:id="rId7"/>
+    <hyperlink ref="B97" r:id="rId8"/>
+    <hyperlink ref="B96" r:id="rId9"/>
+    <hyperlink ref="B95" r:id="rId10"/>
+    <hyperlink ref="B94" r:id="rId11"/>
+    <hyperlink ref="B93" r:id="rId12"/>
+    <hyperlink ref="B92" r:id="rId13"/>
+    <hyperlink ref="B91" r:id="rId14"/>
+    <hyperlink ref="B90" r:id="rId15"/>
+    <hyperlink ref="B89" r:id="rId16"/>
+    <hyperlink ref="B88" r:id="rId17"/>
+    <hyperlink ref="B87" r:id="rId18"/>
+    <hyperlink ref="B86" r:id="rId19"/>
+    <hyperlink ref="B85" r:id="rId20"/>
+    <hyperlink ref="B84" r:id="rId21"/>
+    <hyperlink ref="B83" r:id="rId22"/>
+    <hyperlink ref="B82" r:id="rId23"/>
+    <hyperlink ref="B81" r:id="rId24"/>
+    <hyperlink ref="B80" r:id="rId25"/>
+    <hyperlink ref="B79" r:id="rId26"/>
+    <hyperlink ref="B78" r:id="rId27"/>
+    <hyperlink ref="B77" r:id="rId28"/>
+    <hyperlink ref="B76" r:id="rId29"/>
+    <hyperlink ref="B75" r:id="rId30"/>
+    <hyperlink ref="B74" r:id="rId31"/>
+    <hyperlink ref="B73" r:id="rId32"/>
+    <hyperlink ref="B72" r:id="rId33"/>
+    <hyperlink ref="B71" r:id="rId34"/>
+    <hyperlink ref="B70" r:id="rId35"/>
+    <hyperlink ref="B69" r:id="rId36"/>
+    <hyperlink ref="B68" r:id="rId37"/>
+    <hyperlink ref="B67" r:id="rId38"/>
+    <hyperlink ref="B66" r:id="rId39"/>
+    <hyperlink ref="B65" r:id="rId40"/>
+    <hyperlink ref="B64" r:id="rId41"/>
+    <hyperlink ref="B63" r:id="rId42"/>
+    <hyperlink ref="B62" r:id="rId43"/>
+    <hyperlink ref="B61" r:id="rId44"/>
+    <hyperlink ref="B60" r:id="rId45"/>
+    <hyperlink ref="B59" r:id="rId46"/>
+    <hyperlink ref="B58" r:id="rId47"/>
+    <hyperlink ref="B57" r:id="rId48"/>
+    <hyperlink ref="B56" r:id="rId49"/>
+    <hyperlink ref="B55" r:id="rId50"/>
+    <hyperlink ref="B54" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B51" r:id="rId53"/>
+    <hyperlink ref="B50" r:id="rId54"/>
+    <hyperlink ref="B49" r:id="rId55"/>
+    <hyperlink ref="B48" r:id="rId56"/>
+    <hyperlink ref="B47" r:id="rId57"/>
+    <hyperlink ref="B46" r:id="rId58"/>
+    <hyperlink ref="B45" r:id="rId59"/>
+    <hyperlink ref="B44" r:id="rId60"/>
+    <hyperlink ref="B42" r:id="rId61"/>
+    <hyperlink ref="B41" r:id="rId62"/>
+    <hyperlink ref="B40" r:id="rId63"/>
+    <hyperlink ref="B39" r:id="rId64"/>
+    <hyperlink ref="B38" r:id="rId65"/>
+    <hyperlink ref="B37" r:id="rId66"/>
+    <hyperlink ref="B36" r:id="rId67"/>
+    <hyperlink ref="B35" r:id="rId68"/>
+    <hyperlink ref="B34" r:id="rId69"/>
+    <hyperlink ref="B33" r:id="rId70"/>
+    <hyperlink ref="B32" r:id="rId71"/>
+    <hyperlink ref="B31" r:id="rId72"/>
+    <hyperlink ref="B30" r:id="rId73"/>
+    <hyperlink ref="B29" r:id="rId74"/>
+    <hyperlink ref="B28" r:id="rId75"/>
+    <hyperlink ref="B27" r:id="rId76"/>
+    <hyperlink ref="B26" r:id="rId77"/>
+    <hyperlink ref="B25" r:id="rId78"/>
+    <hyperlink ref="B24" r:id="rId79"/>
+    <hyperlink ref="B23" r:id="rId80"/>
+    <hyperlink ref="B22" r:id="rId81"/>
+    <hyperlink ref="B21" r:id="rId82"/>
+    <hyperlink ref="B20" r:id="rId83"/>
+    <hyperlink ref="B19" r:id="rId84"/>
+    <hyperlink ref="B18" r:id="rId85"/>
+    <hyperlink ref="B17" r:id="rId86"/>
+    <hyperlink ref="B16" r:id="rId87"/>
+    <hyperlink ref="B14" r:id="rId88"/>
+    <hyperlink ref="B13" r:id="rId89"/>
+    <hyperlink ref="B12" r:id="rId90"/>
+    <hyperlink ref="B11" r:id="rId91"/>
+    <hyperlink ref="B10" r:id="rId92"/>
+    <hyperlink ref="B9" r:id="rId93"/>
+    <hyperlink ref="B8" r:id="rId94"/>
+    <hyperlink ref="B7" r:id="rId95"/>
+    <hyperlink ref="B6" r:id="rId96"/>
+    <hyperlink ref="B5" r:id="rId97"/>
+    <hyperlink ref="B4" r:id="rId98"/>
+    <hyperlink ref="B3" r:id="rId99"/>
+    <hyperlink ref="B2" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
